--- a/out.xlsx
+++ b/out.xlsx
@@ -610,7 +610,7 @@
         <v>64.92</v>
       </c>
       <c r="U2" t="n">
-        <v>291520</v>
+        <v>434869</v>
       </c>
     </row>
     <row r="3">
@@ -679,7 +679,7 @@
         <v>134.2</v>
       </c>
       <c r="U3" t="n">
-        <v>378750</v>
+        <v>433308</v>
       </c>
     </row>
     <row r="4">
@@ -746,7 +746,7 @@
         <v>111.11</v>
       </c>
       <c r="U4" t="n">
-        <v>4405369</v>
+        <v>5513697</v>
       </c>
     </row>
     <row r="5">
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>277243</v>
+        <v>276544</v>
       </c>
     </row>
     <row r="6">
@@ -870,7 +870,7 @@
         <v>111.11</v>
       </c>
       <c r="U6" t="n">
-        <v>342894</v>
+        <v>394749</v>
       </c>
     </row>
     <row r="7">
@@ -933,7 +933,7 @@
       </c>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="n">
-        <v>161261</v>
+        <v>145804</v>
       </c>
     </row>
     <row r="8">
@@ -996,7 +996,7 @@
         <v>90.88</v>
       </c>
       <c r="U8" t="n">
-        <v>180432</v>
+        <v>343000</v>
       </c>
     </row>
     <row r="9">
@@ -1063,7 +1063,7 @@
         <v>117.25</v>
       </c>
       <c r="U9" t="n">
-        <v>417032</v>
+        <v>426018</v>
       </c>
     </row>
     <row r="10">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
-        <v>242501</v>
+        <v>344242</v>
       </c>
     </row>
     <row r="11">
@@ -1197,7 +1197,7 @@
         <v>1200.98</v>
       </c>
       <c r="U11" t="n">
-        <v>1761841</v>
+        <v>2156419</v>
       </c>
     </row>
   </sheetData>

--- a/out.xlsx
+++ b/out.xlsx
@@ -610,7 +610,7 @@
         <v>64.92</v>
       </c>
       <c r="U2" t="n">
-        <v>434869</v>
+        <v>241306</v>
       </c>
     </row>
     <row r="3">
@@ -679,7 +679,7 @@
         <v>134.2</v>
       </c>
       <c r="U3" t="n">
-        <v>433308</v>
+        <v>229199</v>
       </c>
     </row>
     <row r="4">
@@ -746,7 +746,7 @@
         <v>111.11</v>
       </c>
       <c r="U4" t="n">
-        <v>5513697</v>
+        <v>3475940</v>
       </c>
     </row>
     <row r="5">
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>276544</v>
+        <v>250462</v>
       </c>
     </row>
     <row r="6">
@@ -870,7 +870,7 @@
         <v>111.11</v>
       </c>
       <c r="U6" t="n">
-        <v>394749</v>
+        <v>199773</v>
       </c>
     </row>
     <row r="7">
@@ -933,7 +933,7 @@
       </c>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="n">
-        <v>145804</v>
+        <v>439350</v>
       </c>
     </row>
     <row r="8">
@@ -996,7 +996,7 @@
         <v>90.88</v>
       </c>
       <c r="U8" t="n">
-        <v>343000</v>
+        <v>113773</v>
       </c>
     </row>
     <row r="9">
@@ -1063,7 +1063,7 @@
         <v>117.25</v>
       </c>
       <c r="U9" t="n">
-        <v>426018</v>
+        <v>212626</v>
       </c>
     </row>
     <row r="10">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
-        <v>344242</v>
+        <v>627849</v>
       </c>
     </row>
     <row r="11">
@@ -1197,7 +1197,7 @@
         <v>1200.98</v>
       </c>
       <c r="U11" t="n">
-        <v>2156419</v>
+        <v>1931503</v>
       </c>
     </row>
   </sheetData>
